--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50159.7343067556</v>
+        <v>9871052.390345877</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50159.7343067556</v>
+        <v>9871052.390345877</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193786.5701317445</v>
+        <v>21390459.49275164</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>193786.5701317445</v>
+        <v>21390459.49275164</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1339647303.420274</v>
+        <v>32044415.26241373</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16457.27887623353</v>
+        <v>815418.0139797941</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31380.18451272882</v>
+        <v>1378415.283698929</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>46158.50642595264</v>
+        <v>1941412.553418064</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>61019.19279352715</v>
+        <v>2502044.257525963</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75865.9617830599</v>
+        <v>3065165.49180963</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90653.7332884374</v>
+        <v>3750834.185538616</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>105094.9914505813</v>
+        <v>4667567.028646391</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>119115.1861783818</v>
+        <v>5500508.248319821</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>133304.6693136151</v>
+        <v>6037071.71199598</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>147717.0069699751</v>
+        <v>6666358.518679406</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>162369.7628324812</v>
+        <v>7295113.255082827</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>177022.5186949872</v>
+        <v>7923867.991486249</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>191675.2745574932</v>
+        <v>8552622.727889674</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>206722.6287160179</v>
+        <v>8973873.071762873</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>221727.6880691646</v>
+        <v>9170479.305452814</v>
       </c>
     </row>
   </sheetData>
